--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>521725.4430571826</v>
+        <v>527409.2443994828</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17965173.4684127</v>
+        <v>16722200.63474371</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3370884.082190458</v>
+        <v>2152646.40791149</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6697393.391978891</v>
+        <v>7236221.145713702</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>413.6460429296794</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>104.3571923472299</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -823,13 +825,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>119.8634463900537</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257805</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>33.85998778945957</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>127.1100078938257</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,7 +913,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>3.139541480022982</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>46.22530271040065</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1136,13 +1138,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>317.7395920995095</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>80.63562514394246</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1300,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>39.57637241135486</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>18.05677735225759</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>33.85998778945957</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>375.6587772975535</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1531,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475798</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1540,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>3.139541480022982</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1607,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>327.4992634139047</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1622,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>121.4730686166568</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1844,25 +1846,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>215.3420879906934</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345373</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2479,10 +2481,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>32.98066327132541</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>52.79556056590986</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2959,13 +2961,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>171.7931177684379</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,10 +3675,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>110.9855059742091</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>337.6783262792273</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3989,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>92.84297126644577</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>246.3049443265652</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.0402736571996</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.05677735225728</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430.767930585085</v>
+        <v>1196.265441698523</v>
       </c>
       <c r="C2" t="n">
-        <v>992.6254577685086</v>
+        <v>778.4411559109678</v>
       </c>
       <c r="D2" t="n">
-        <v>992.6254577685086</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="E2" t="n">
-        <v>887.2141523672663</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F2" t="n">
-        <v>459.3467227764741</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>57.94889139973796</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>57.94889139973796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>492.7867894797959</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K2" t="n">
-        <v>492.7867894797959</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L2" t="n">
-        <v>492.7867894797959</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M2" t="n">
-        <v>492.7867894797959</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N2" t="n">
-        <v>737.032725467017</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O2" t="n">
-        <v>1448.992488049632</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="P2" t="n">
-        <v>2160.952250632246</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q2" t="n">
-        <v>2707.451036590841</v>
+        <v>2582.420166112558</v>
       </c>
       <c r="R2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2876.605101343898</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>2617.382798660915</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V2" t="n">
-        <v>2254.765848594741</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W2" t="n">
-        <v>1849.910394005775</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="X2" t="n">
-        <v>1430.767930585085</v>
+        <v>2030.851135883777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1430.767930585085</v>
+        <v>1622.565012183431</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J3" t="n">
-        <v>57.53210202687796</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K3" t="n">
-        <v>57.53210202687796</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L3" t="n">
-        <v>57.53210202687796</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="M3" t="n">
-        <v>57.53210202687796</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="N3" t="n">
-        <v>57.53210202687796</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="O3" t="n">
-        <v>350.9003841966569</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="P3" t="n">
-        <v>1062.860146779272</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q3" t="n">
-        <v>1603.599085411347</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R3" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>948.0215075640826</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>775.4597960473076</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>609.5818032488303</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>488.5076149760487</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>488.5076149760487</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>488.5076149760487</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>348.6054406664232</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>259.9454914410986</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>346.5251766057884</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>621.283631176924</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>1039.493512944885</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
-        <v>1498.977380125798</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1941.236183283443</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2360.905432509224</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2708.412326479566</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2855.18728004927</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2695.945911347267</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T4" t="n">
-        <v>2450.066464925722</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U4" t="n">
-        <v>2171.633464178827</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V4" t="n">
-        <v>1884.677956049258</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W4" t="n">
-        <v>1612.651551635549</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X4" t="n">
-        <v>1367.259796968962</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y4" t="n">
-        <v>1139.84012628307</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1644.321059633896</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.321059633896</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D5" t="n">
-        <v>1610.119051765755</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="E5" t="n">
-        <v>1176.34430692405</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>748.4768773332578</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>347.0790459565217</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H5" t="n">
-        <v>57.94889139973796</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="I5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J5" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K5" t="n">
-        <v>57.53210202687796</v>
+        <v>714.241271070407</v>
       </c>
       <c r="L5" t="n">
-        <v>769.4918646094927</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M5" t="n">
-        <v>769.4918646094927</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N5" t="n">
-        <v>1481.451627192107</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="O5" t="n">
-        <v>2193.411389774722</v>
+        <v>2035.921380153964</v>
       </c>
       <c r="P5" t="n">
-        <v>2193.411389774722</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2707.451036590841</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2876.605101343898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>2471.749646754932</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X5" t="n">
-        <v>2052.607183334243</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y5" t="n">
-        <v>1644.321059633896</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>563.7038470181708</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>457.247385854813</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>362.1570970013663</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>268.03668232832</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6528439444816</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>99.26775421066549</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I6" t="n">
-        <v>83.59577518733556</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>408.1541001535479</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="K6" t="n">
-        <v>408.1541001535479</v>
+        <v>277.7880908295409</v>
       </c>
       <c r="L6" t="n">
-        <v>408.1541001535479</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="M6" t="n">
-        <v>408.1541001535479</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="N6" t="n">
-        <v>408.1541001535479</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="O6" t="n">
-        <v>408.1541001535479</v>
+        <v>938.6281453713193</v>
       </c>
       <c r="P6" t="n">
-        <v>1062.860146779272</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q6" t="n">
-        <v>1603.599085411347</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1720.771863505687</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1657.31642595407</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1527.137782284672</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1350.80123528464</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1151.683717346639</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>966.3609630798333</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>811.4935273187132</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>685.0077480979339</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.6081181498621</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>573.046406633087</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>407.1684138346097</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>237.410410085347</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>60.7033560471032</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>57.53210202687796</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>57.53210202687796</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>57.53210202687796</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J7" t="n">
-        <v>144.1117871915678</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>418.8702417627034</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>837.0801235306644</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1296.563990711577</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1738.822793869222</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2158.492043095003</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2505.998937065345</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2674.191711929678</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2652.77389063505</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2493.532521933046</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2247.653075511501</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1969.220074764607</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1682.264566635037</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.238162221329</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.846407554741</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.4267368688493</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.021489148988</v>
+        <v>2221.932830255045</v>
       </c>
       <c r="C8" t="n">
-        <v>779.8790163324115</v>
+        <v>1783.790357438468</v>
       </c>
       <c r="D8" t="n">
-        <v>779.8790163324115</v>
+        <v>1347.880572612912</v>
       </c>
       <c r="E8" t="n">
-        <v>458.9299334036141</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F8" t="n">
-        <v>458.9299334036141</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="H8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I8" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J8" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K8" t="n">
-        <v>492.7867894797959</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L8" t="n">
-        <v>492.7867894797959</v>
+        <v>1963.518315095385</v>
       </c>
       <c r="M8" t="n">
-        <v>1204.746552062411</v>
+        <v>3008.262560801772</v>
       </c>
       <c r="N8" t="n">
-        <v>1204.746552062411</v>
+        <v>4053.00680650816</v>
       </c>
       <c r="O8" t="n">
-        <v>1448.992488049632</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="P8" t="n">
-        <v>2160.952250632246</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="Q8" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T8" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U8" t="n">
-        <v>2876.605101343898</v>
+        <v>3961.966568857978</v>
       </c>
       <c r="V8" t="n">
-        <v>2876.605101343898</v>
+        <v>3880.516442449955</v>
       </c>
       <c r="W8" t="n">
-        <v>2471.749646754932</v>
+        <v>3475.660987860988</v>
       </c>
       <c r="X8" t="n">
-        <v>2052.607183334243</v>
+        <v>3056.518524440299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1644.321059633896</v>
+        <v>2648.232400739952</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C9" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D9" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E9" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F9" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G9" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I9" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J9" t="n">
-        <v>83.59577518733556</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>296.8523383404574</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L9" t="n">
-        <v>296.8523383404574</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M9" t="n">
-        <v>1008.812100923072</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N9" t="n">
-        <v>1720.771863505687</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.771863505687</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P9" t="n">
-        <v>1720.771863505687</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q9" t="n">
-        <v>1720.771863505687</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R9" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S9" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T9" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U9" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V9" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W9" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X9" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y9" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>926.2673081464936</v>
+        <v>772.4997935538031</v>
       </c>
       <c r="C10" t="n">
-        <v>753.7055966297186</v>
+        <v>599.938082037028</v>
       </c>
       <c r="D10" t="n">
-        <v>587.8276038312413</v>
+        <v>434.0600892385507</v>
       </c>
       <c r="E10" t="n">
-        <v>418.0696000819785</v>
+        <v>264.302085489288</v>
       </c>
       <c r="F10" t="n">
-        <v>241.3625460437347</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="G10" t="n">
-        <v>75.7712710695624</v>
+        <v>224.3259517404447</v>
       </c>
       <c r="H10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I10" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J10" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K10" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L10" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M10" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N10" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O10" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P10" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q10" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2674.191711929678</v>
+        <v>2679.665566038991</v>
       </c>
       <c r="S10" t="n">
-        <v>2674.191711929678</v>
+        <v>2520.424197336987</v>
       </c>
       <c r="T10" t="n">
-        <v>2428.312265508133</v>
+        <v>2274.544750915442</v>
       </c>
       <c r="U10" t="n">
-        <v>2149.879264761238</v>
+        <v>1996.111750168548</v>
       </c>
       <c r="V10" t="n">
-        <v>1862.923756631669</v>
+        <v>1709.156242038978</v>
       </c>
       <c r="W10" t="n">
-        <v>1590.89735221796</v>
+        <v>1437.12983762527</v>
       </c>
       <c r="X10" t="n">
-        <v>1345.505597551373</v>
+        <v>1191.738082958682</v>
       </c>
       <c r="Y10" t="n">
-        <v>1118.085926865481</v>
+        <v>964.3184122727903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.321059633896</v>
+        <v>2199.988309279878</v>
       </c>
       <c r="C11" t="n">
-        <v>1644.321059633896</v>
+        <v>1761.845836463301</v>
       </c>
       <c r="D11" t="n">
-        <v>1610.119051765755</v>
+        <v>1325.936051637746</v>
       </c>
       <c r="E11" t="n">
-        <v>1176.34430692405</v>
+        <v>892.1613067960407</v>
       </c>
       <c r="F11" t="n">
-        <v>748.4768773332578</v>
+        <v>464.2938772052484</v>
       </c>
       <c r="G11" t="n">
-        <v>347.0790459565217</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="H11" t="n">
-        <v>57.94889139973796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I11" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J11" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K11" t="n">
-        <v>1204.746552062411</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L11" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="M11" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="N11" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="O11" t="n">
-        <v>1916.706314645025</v>
+        <v>2846.380210748971</v>
       </c>
       <c r="P11" t="n">
-        <v>2330.106315385303</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U11" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="V11" t="n">
-        <v>2876.605101343898</v>
+        <v>3858.571921474788</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.749646754932</v>
+        <v>3453.716466885821</v>
       </c>
       <c r="X11" t="n">
-        <v>2052.607183334243</v>
+        <v>3034.574003465132</v>
       </c>
       <c r="Y11" t="n">
-        <v>1644.321059633896</v>
+        <v>2626.287879764785</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C12" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D12" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E12" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F12" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G12" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I12" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J12" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K12" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L12" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M12" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N12" t="n">
-        <v>1120.113862736163</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O12" t="n">
-        <v>1120.113862736163</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P12" t="n">
-        <v>1120.113862736163</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q12" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R12" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S12" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T12" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U12" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V12" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W12" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X12" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y12" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>745.6081181498621</v>
+        <v>953.1589835504346</v>
       </c>
       <c r="C13" t="n">
-        <v>573.046406633087</v>
+        <v>780.5972720336596</v>
       </c>
       <c r="D13" t="n">
-        <v>407.1684138346097</v>
+        <v>659.4509587532759</v>
       </c>
       <c r="E13" t="n">
-        <v>237.410410085347</v>
+        <v>489.6929550040131</v>
       </c>
       <c r="F13" t="n">
-        <v>60.7033560471032</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="G13" t="n">
-        <v>57.53210202687796</v>
+        <v>312.9859009657694</v>
       </c>
       <c r="H13" t="n">
-        <v>57.53210202687796</v>
+        <v>173.0837266561439</v>
       </c>
       <c r="I13" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J13" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K13" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L13" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M13" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N13" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O13" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P13" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q13" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R13" t="n">
-        <v>2652.77389063505</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2493.532521933046</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="T13" t="n">
-        <v>2247.653075511501</v>
+        <v>2455.203940912074</v>
       </c>
       <c r="U13" t="n">
-        <v>1969.220074764607</v>
+        <v>2176.770940165179</v>
       </c>
       <c r="V13" t="n">
-        <v>1682.264566635037</v>
+        <v>1889.81543203561</v>
       </c>
       <c r="W13" t="n">
-        <v>1410.238162221329</v>
+        <v>1617.789027621901</v>
       </c>
       <c r="X13" t="n">
-        <v>1164.846407554741</v>
+        <v>1372.397272955314</v>
       </c>
       <c r="Y13" t="n">
-        <v>937.4267368688493</v>
+        <v>1144.977602269422</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1218.021489148988</v>
+        <v>2077.288239970123</v>
       </c>
       <c r="C14" t="n">
-        <v>887.2141523672663</v>
+        <v>1639.145767153547</v>
       </c>
       <c r="D14" t="n">
-        <v>887.2141523672663</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="E14" t="n">
-        <v>887.2141523672663</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F14" t="n">
-        <v>459.3467227764741</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G14" t="n">
-        <v>57.94889139973796</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H14" t="n">
-        <v>57.94889139973796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I14" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J14" t="n">
-        <v>492.7867894797959</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="K14" t="n">
-        <v>1204.746552062411</v>
+        <v>918.7740693889972</v>
       </c>
       <c r="L14" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="M14" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="N14" t="n">
-        <v>1204.746552062411</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="O14" t="n">
-        <v>1448.992488049632</v>
+        <v>2846.380210748971</v>
       </c>
       <c r="P14" t="n">
-        <v>2160.952250632246</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
-        <v>2707.451036590841</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T14" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U14" t="n">
-        <v>2876.605101343898</v>
+        <v>4098.488802231207</v>
       </c>
       <c r="V14" t="n">
-        <v>2876.605101343898</v>
+        <v>3735.871852165033</v>
       </c>
       <c r="W14" t="n">
-        <v>2471.749646754932</v>
+        <v>3331.016397576067</v>
       </c>
       <c r="X14" t="n">
-        <v>2052.607183334243</v>
+        <v>2911.873934155378</v>
       </c>
       <c r="Y14" t="n">
-        <v>1644.321059633896</v>
+        <v>2503.587810455031</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>563.7038470181708</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C15" t="n">
-        <v>457.247385854813</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D15" t="n">
-        <v>362.1570970013663</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E15" t="n">
-        <v>268.03668232832</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F15" t="n">
-        <v>184.6528439444816</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G15" t="n">
-        <v>99.26775421066549</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I15" t="n">
-        <v>83.59577518733556</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J15" t="n">
-        <v>408.1541001535479</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P15" t="n">
-        <v>1062.860146779272</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q15" t="n">
-        <v>1603.599085411347</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R15" t="n">
-        <v>1720.771863505687</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S15" t="n">
-        <v>1657.31642595407</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T15" t="n">
-        <v>1527.137782284672</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U15" t="n">
-        <v>1350.80123528464</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V15" t="n">
-        <v>1151.683717346639</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W15" t="n">
-        <v>966.3609630798333</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X15" t="n">
-        <v>811.4935273187132</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y15" t="n">
-        <v>685.0077480979339</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1136.590262638759</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C16" t="n">
-        <v>964.0285511219844</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D16" t="n">
-        <v>798.1505583235071</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E16" t="n">
-        <v>628.3925545742443</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F16" t="n">
-        <v>451.6855005360005</v>
+        <v>250.0150524049916</v>
       </c>
       <c r="G16" t="n">
-        <v>286.0942255618281</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H16" t="n">
-        <v>146.1920512522026</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I16" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J16" t="n">
-        <v>144.1117871915678</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K16" t="n">
-        <v>418.8702417627034</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L16" t="n">
-        <v>837.0801235306644</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M16" t="n">
-        <v>1296.563990711577</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N16" t="n">
-        <v>1738.822793869222</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O16" t="n">
-        <v>2158.492043095003</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P16" t="n">
-        <v>2505.998937065345</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R16" t="n">
-        <v>2674.191711929678</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.191711929678</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.312265508133</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U16" t="n">
-        <v>2360.202219253504</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V16" t="n">
-        <v>2073.246711123934</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W16" t="n">
-        <v>1801.220306710226</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X16" t="n">
-        <v>1555.828552043638</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y16" t="n">
-        <v>1328.408881357747</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>780.4370014253666</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>780.4370014253666</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>780.4370014253666</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>346.6622565836617</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>346.6622565836617</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>346.6622565836617</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>492.7867894797959</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1204.746552062411</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1448.992488049632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1448.992488049632</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="N17" t="n">
-        <v>1448.992488049632</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O17" t="n">
-        <v>1448.992488049632</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>2160.952250632246</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>2707.451036590841</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>2876.605101343898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>2876.605101343898</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>2656.537874216937</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>2439.020613620277</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>2439.020613620277</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>2034.16515903131</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>1615.022695610621</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>1206.736571910275</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>563.7038470181708</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>457.247385854813</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>362.1570970013663</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>268.03668232832</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>184.6528439444816</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>99.26775421066549</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>57.53210202687796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>57.53210202687796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>57.53210202687796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>769.4918646094927</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>769.4918646094927</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>769.4918646094927</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1481.451627192107</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1720.771863505687</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1720.771863505687</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1720.771863505687</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1657.31642595407</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1527.137782284672</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1350.80123528464</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1151.683717346639</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>966.3609630798333</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>811.4935273187132</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>685.0077480979339</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>745.6081181498621</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>573.046406633087</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>407.1684138346097</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>237.410410085347</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>223.1233770010503</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>57.53210202687796</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>144.1117871915678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>418.8702417627034</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>837.0801235306644</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1296.563990711577</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1738.822793869222</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2158.492043095003</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2505.998937065345</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2674.191711929678</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2652.77389063505</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2493.532521933046</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2247.653075511501</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>1969.220074764607</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1682.264566635037</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1410.238162221329</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1164.846407554741</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>937.4267368688493</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5750,52 +5752,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>584.4613435928212</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>605.8694973157604</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1680.92946356862</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2837.977298779171</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>3963.708282215618</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6303,28 +6305,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.441008084184</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>842.8792965674086</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2239.052964698928</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1952.097456569358</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.07105215565</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.679297489062</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.259626803171</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>228.5247761102221</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1303.584742363081</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2460.632577573632</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3586.363561010079</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580386</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,19 +6545,19 @@
         <v>3800.424250186843</v>
       </c>
       <c r="K30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O30" t="n">
-        <v>3800.424250186843</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P30" t="n">
         <v>4455.130296812566</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D31" t="n">
-        <v>451.897152078511</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E31" t="n">
-        <v>282.1391483292483</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F31" t="n">
-        <v>242.1630145804051</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,49 +6940,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987181</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7019,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3343.699788461171</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3171.138076944395</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3005.260084145918</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>2835.502080396655</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5091.624192244353</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4845.744745822809</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4567.311745075915</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4280.356236946345</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4008.329832532637</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3762.938077866049</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3535.518407180158</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7184,40 +7186,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>3321.189340048566</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>3148.627628531791</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>2982.749635733314</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>2812.991631984051</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>3513.007958767554</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436392</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>2398.773002548303</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>3443.517248254691</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>3880.099653077095</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3064.120855053445</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>2957.664393890087</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>2862.574105036641</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>2768.453690363594</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>2685.069851979756</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>2599.68476224594</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>2557.949110062153</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>2584.01278322261</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>2908.571108188823</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4104.016093446621</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>4157.733433989344</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4027.554790319946</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>3851.218243319914</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>3652.100725381913</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>3466.777971115107</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>3311.910535353988</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>3185.424756133209</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731391</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238763</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856325</v>
+        <v>250.0150524049916</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1793.226534101507</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C44" t="n">
-        <v>1355.084061284931</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D44" t="n">
-        <v>919.1742764593751</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E44" t="n">
-        <v>485.3995316176702</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F44" t="n">
-        <v>57.53210202687796</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G44" t="n">
-        <v>57.53210202687796</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.84056680367922</v>
       </c>
       <c r="I44" t="n">
-        <v>57.53210202687796</v>
+        <v>84.42377743081923</v>
       </c>
       <c r="J44" t="n">
-        <v>57.53210202687796</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K44" t="n">
-        <v>194.2270276374591</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>906.1867902200739</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="M44" t="n">
-        <v>906.1867902200739</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="N44" t="n">
-        <v>906.1867902200739</v>
+        <v>1866.200544178664</v>
       </c>
       <c r="O44" t="n">
-        <v>1618.146552802689</v>
+        <v>2846.380210748971</v>
       </c>
       <c r="P44" t="n">
-        <v>2330.106315385303</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T44" t="n">
-        <v>2876.605101343898</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="U44" t="n">
-        <v>2876.605101343898</v>
+        <v>4127.408092483945</v>
       </c>
       <c r="V44" t="n">
-        <v>2876.605101343898</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="W44" t="n">
-        <v>2876.605101343898</v>
+        <v>3764.791142417772</v>
       </c>
       <c r="X44" t="n">
-        <v>2627.812228286762</v>
+        <v>3345.648678997083</v>
       </c>
       <c r="Y44" t="n">
-        <v>2219.526104586415</v>
+        <v>2937.362555296736</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>563.7038470181708</v>
+        <v>3064.120855053445</v>
       </c>
       <c r="C45" t="n">
-        <v>457.247385854813</v>
+        <v>2957.664393890087</v>
       </c>
       <c r="D45" t="n">
-        <v>362.1570970013663</v>
+        <v>2862.574105036641</v>
       </c>
       <c r="E45" t="n">
-        <v>268.03668232832</v>
+        <v>2768.453690363594</v>
       </c>
       <c r="F45" t="n">
-        <v>184.6528439444816</v>
+        <v>2685.069851979756</v>
       </c>
       <c r="G45" t="n">
-        <v>99.26775421066549</v>
+        <v>2599.68476224594</v>
       </c>
       <c r="H45" t="n">
-        <v>57.53210202687796</v>
+        <v>2557.949110062153</v>
       </c>
       <c r="I45" t="n">
-        <v>83.59577518733556</v>
+        <v>2584.01278322261</v>
       </c>
       <c r="J45" t="n">
-        <v>408.1541001535479</v>
+        <v>2908.571108188823</v>
       </c>
       <c r="K45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="L45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="N45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="O45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="P45" t="n">
-        <v>1062.860146779272</v>
+        <v>3563.277154814545</v>
       </c>
       <c r="Q45" t="n">
-        <v>1603.599085411347</v>
+        <v>4104.016093446621</v>
       </c>
       <c r="R45" t="n">
-        <v>1720.771863505687</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S45" t="n">
-        <v>1657.31642595407</v>
+        <v>4157.733433989344</v>
       </c>
       <c r="T45" t="n">
-        <v>1527.137782284672</v>
+        <v>4027.554790319946</v>
       </c>
       <c r="U45" t="n">
-        <v>1350.80123528464</v>
+        <v>3851.218243319914</v>
       </c>
       <c r="V45" t="n">
-        <v>1151.683717346639</v>
+        <v>3652.100725381913</v>
       </c>
       <c r="W45" t="n">
-        <v>966.3609630798333</v>
+        <v>3466.777971115107</v>
       </c>
       <c r="X45" t="n">
-        <v>811.4935273187132</v>
+        <v>3311.910535353988</v>
       </c>
       <c r="Y45" t="n">
-        <v>685.0077480979339</v>
+        <v>3185.424756133209</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>745.6081181498621</v>
+        <v>2473.264467757778</v>
       </c>
       <c r="C46" t="n">
-        <v>735.4664275870342</v>
+        <v>2300.702756241003</v>
       </c>
       <c r="D46" t="n">
-        <v>569.5884347885569</v>
+        <v>2134.824763442525</v>
       </c>
       <c r="E46" t="n">
-        <v>399.8304310392941</v>
+        <v>1965.066759693262</v>
       </c>
       <c r="F46" t="n">
-        <v>223.1233770010503</v>
+        <v>1788.359705655019</v>
       </c>
       <c r="G46" t="n">
-        <v>57.53210202687796</v>
+        <v>1622.768430680846</v>
       </c>
       <c r="H46" t="n">
-        <v>57.53210202687796</v>
+        <v>1622.768430680846</v>
       </c>
       <c r="I46" t="n">
-        <v>57.53210202687796</v>
+        <v>1604.529261638162</v>
       </c>
       <c r="J46" t="n">
-        <v>144.1117871915678</v>
+        <v>1691.108946802852</v>
       </c>
       <c r="K46" t="n">
-        <v>418.8702417627034</v>
+        <v>1965.867401373987</v>
       </c>
       <c r="L46" t="n">
-        <v>837.0801235306644</v>
+        <v>2384.077283141948</v>
       </c>
       <c r="M46" t="n">
-        <v>1296.563990711577</v>
+        <v>2843.561150322861</v>
       </c>
       <c r="N46" t="n">
-        <v>1738.822793869222</v>
+        <v>3285.819953480506</v>
       </c>
       <c r="O46" t="n">
-        <v>2158.492043095003</v>
+        <v>3705.489202706287</v>
       </c>
       <c r="P46" t="n">
-        <v>2505.998937065345</v>
+        <v>4052.996096676629</v>
       </c>
       <c r="Q46" t="n">
-        <v>2674.191711929678</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="R46" t="n">
-        <v>2652.77389063505</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="S46" t="n">
-        <v>2493.532521933046</v>
+        <v>4221.188871540961</v>
       </c>
       <c r="T46" t="n">
-        <v>2247.653075511501</v>
+        <v>3975.309425119417</v>
       </c>
       <c r="U46" t="n">
-        <v>1969.220074764607</v>
+        <v>3696.876424372522</v>
       </c>
       <c r="V46" t="n">
-        <v>1682.264566635037</v>
+        <v>3409.920916242952</v>
       </c>
       <c r="W46" t="n">
-        <v>1410.238162221329</v>
+        <v>3137.894511829244</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.846407554741</v>
+        <v>2892.502757162657</v>
       </c>
       <c r="Y46" t="n">
-        <v>937.4267368688493</v>
+        <v>2665.083086476765</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>246.7130666537587</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8057,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>296.3315981512919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>719.1512753359746</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q5" t="n">
-        <v>519.2319664809283</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O8" t="n">
-        <v>246.7130666537587</v>
+        <v>169.8808737705058</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>215.4106698516383</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>956.9964391814821</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>417.5757583235131</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.3689117931158</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>956.9964391814821</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>246.7130666537587</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9179,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>241.7376124379591</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,16 +9412,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>834.652727573085</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9474,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9887,7 +9889,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,19 +9953,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10665,7 +10667,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10899,19 +10901,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,25 +11065,25 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831379</v>
+        <v>785.5268922083542</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158815</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>138.0756824349305</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>517.3452397340902</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158815</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>20.11500515873149</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>325.0798050460579</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,22 +22600,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,13 +22713,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.19697732171637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22750,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>208.2197249473436</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>397.6906991878403</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>302.3269894994621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22799,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23024,13 +23026,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>111.6974052937783</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,10 +23077,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>278.3551554215693</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23188,13 +23190,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.3636110865065</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>397.6906991878403</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>21.72507576541528</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44.28436272291272</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.7958207444076</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>106.2617846745063</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23551,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>135.1570110394965</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>41.28799166545991</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>131.2385495991671</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>222.8531101735159</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3.146865729423411</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>114.1599680048237</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>21.31245428628438</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>163.7871083897075</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>168.6460944599172</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444077</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081413</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469597.9585573702</v>
+        <v>448446.7102975984</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469597.9585573702</v>
+        <v>448446.7102975984</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469597.9585573702</v>
+        <v>607290.5919724101</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>469597.9585573702</v>
+        <v>607290.5919724101</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>469597.9585573702</v>
+        <v>607290.5919724101</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>469597.9585573702</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698621.1661345444</v>
+        <v>698621.1661345443</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698621.1661345443</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698621.1661345444</v>
+        <v>698621.1661345443</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>698621.1661345444</v>
+        <v>607290.5919724101</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>469597.9585573702</v>
+        <v>607290.5919724101</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168217.5512687191</v>
+        <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
-        <v>168217.5512687191</v>
+        <v>160640.833517505</v>
       </c>
       <c r="D2" t="n">
-        <v>168217.5512687192</v>
+        <v>217541.2699918058</v>
       </c>
       <c r="E2" t="n">
-        <v>168217.5512687191</v>
+        <v>217541.2699918058</v>
       </c>
       <c r="F2" t="n">
-        <v>168217.5512687192</v>
+        <v>217541.2699918058</v>
       </c>
       <c r="G2" t="n">
-        <v>168217.5512687191</v>
+        <v>250257.3524652424</v>
       </c>
       <c r="H2" t="n">
         <v>250257.3524652424</v>
@@ -26350,10 +26352,10 @@
         <v>250257.3524652424</v>
       </c>
       <c r="O2" t="n">
-        <v>250257.3524652424</v>
+        <v>217541.2699918058</v>
       </c>
       <c r="P2" t="n">
-        <v>168217.5512687191</v>
+        <v>217541.2699918058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>241004.1328444178</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>120456.7261630936</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>61110.89210613185</v>
       </c>
       <c r="H3" t="n">
-        <v>150852.7017106108</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188161.6162840057</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>98144.13701620419</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18608.63583273251</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="C4" t="n">
-        <v>18608.63583273251</v>
+        <v>17770.48083418235</v>
       </c>
       <c r="D4" t="n">
-        <v>18608.63583273251</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="E4" t="n">
-        <v>18608.63583273251</v>
+        <v>24064.9459068688</v>
       </c>
       <c r="F4" t="n">
-        <v>18608.63583273251</v>
+        <v>24064.9459068688</v>
       </c>
       <c r="G4" t="n">
-        <v>18608.6358327325</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26448,16 +26450,16 @@
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020268</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="P4" t="n">
-        <v>18608.63583273251</v>
+        <v>24064.94590686879</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>77351.99754042726</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="D5" t="n">
-        <v>77351.99754042726</v>
+        <v>97789.67084742262</v>
       </c>
       <c r="E5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="F5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="G5" t="n">
-        <v>43724.39754042725</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>64162.07084742261</v>
       </c>
       <c r="P5" t="n">
-        <v>43724.39754042725</v>
+        <v>64162.07084742261</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168747.2149488584</v>
+        <v>-155041.8704624799</v>
       </c>
       <c r="C6" t="n">
-        <v>72256.91789555937</v>
+        <v>68657.82812156493</v>
       </c>
       <c r="D6" t="n">
-        <v>72256.9178955594</v>
+        <v>-24770.07292557918</v>
       </c>
       <c r="E6" t="n">
-        <v>105884.5178955594</v>
+        <v>129314.2532375144</v>
       </c>
       <c r="F6" t="n">
-        <v>105884.5178955594</v>
+        <v>129314.2532375144</v>
       </c>
       <c r="G6" t="n">
-        <v>105884.5178955594</v>
+        <v>83744.14300311534</v>
       </c>
       <c r="H6" t="n">
-        <v>-5997.666601363613</v>
+        <v>144855.0351092472</v>
       </c>
       <c r="I6" t="n">
         <v>144855.0351092471</v>
       </c>
       <c r="J6" t="n">
-        <v>-43306.58117475851</v>
+        <v>-29796.31360845898</v>
       </c>
       <c r="K6" t="n">
+        <v>144855.0351092472</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46710.89809304298</v>
+      </c>
+      <c r="M6" t="n">
         <v>144855.0351092471</v>
-      </c>
-      <c r="L6" t="n">
-        <v>144855.0351092471</v>
-      </c>
-      <c r="M6" t="n">
-        <v>144855.0351092472</v>
       </c>
       <c r="N6" t="n">
         <v>144855.0351092472</v>
       </c>
       <c r="O6" t="n">
-        <v>144855.0351092471</v>
+        <v>129314.2532375144</v>
       </c>
       <c r="P6" t="n">
-        <v>105884.5178955594</v>
+        <v>129314.2532375144</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="D4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="E4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="F4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="G4" t="n">
-        <v>719.1512753359746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="P4" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
     </row>
   </sheetData>
@@ -27009,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27024,22 +27026,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="H4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359743</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27255,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>719.1512753359746</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>387.7820112773832</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>222.963285499505</v>
       </c>
       <c r="P4" t="n">
-        <v>559.1092280487708</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>246.7130666537587</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="P2" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>88.52591951401018</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>296.3315981512919</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>719.1512753359746</v>
+        <v>138.4873165037804</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34863,7 +34865,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="L5" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="O5" t="n">
-        <v>719.1512753359746</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>640.544895229762</v>
       </c>
       <c r="Q5" t="n">
-        <v>519.2319664809283</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,13 +35014,13 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>200.3264657984391</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M8" t="n">
-        <v>719.1512753359746</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O8" t="n">
-        <v>246.7130666537587</v>
+        <v>169.8808737705058</v>
       </c>
       <c r="P8" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>215.4106698516383</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>956.9964391814821</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>417.5757583235131</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35483,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
@@ -35498,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q12" t="n">
-        <v>488.3689117931158</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>956.9964391814821</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>246.7130666537587</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,13 +35886,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>719.1512753359746</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>246.7130666537587</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>719.1512753359746</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>241.7376124379591</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36054,7 +36056,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36118,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,16 +36132,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>834.652727573085</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36194,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36212,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>69.04441372935651</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36604,10 +36606,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,19 +36673,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,7 +36928,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132072</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37306,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525797</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>807.5312715220462</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37385,7 +37387,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1207.52018712909</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,19 +37621,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>407.423047230348</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1055.29721788524</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352447</v>
+        <v>1055.297217885241</v>
       </c>
       <c r="O41" t="n">
-        <v>990.0804712831377</v>
+        <v>785.5268922083542</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158815</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>118.356341509435</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37944,7 +37946,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>138.0756824349305</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>719.1512753359746</v>
+        <v>517.3452397340902</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>719.1512753359746</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>719.1512753359746</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158815</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.3563415094341</v>
+        <v>118.356341509435</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>527409.2443994828</v>
+        <v>525617.0218082528</v>
       </c>
     </row>
     <row r="7">
@@ -661,22 +661,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>413.6460429296794</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>45.91568880648644</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>34.71811217257805</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>127.1100078938257</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>78.86983685182003</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1068,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>3.13954148002296</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1144,13 +1144,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>212.3267696475278</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>80.63562514394246</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>39.57637241135486</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1384,10 +1384,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>375.6587772975535</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1435,10 +1435,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>375.9149576634055</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>119.9348501475798</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1615,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>121.4730686166568</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>379.4944457567919</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1779,7 +1779,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170454</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>110.9855059742091</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>337.6783262792273</v>
+        <v>80.63562514394157</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3994,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>92.84297126644577</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>337.2657048000951</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18.05677735225728</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.265441698523</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>778.4411559109678</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>342.5313710854123</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>342.5313710854123</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
         <v>53.40121652862856</v>
@@ -4330,28 +4330,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
-        <v>2035.921380153963</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2582.420166112558</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>2030.851135883777</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1622.565012183431</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
         <v>1716.640978007438</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I4" t="n">
         <v>53.40121652862856</v>
@@ -4515,25 +4515,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262988</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V4" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W4" t="n">
-        <v>1586.76646671971</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.477214236518</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.477214236518</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.477214236518</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>883.0832668690169</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>714.241271070407</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>714.241271070407</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>1375.081325612186</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O5" t="n">
-        <v>2035.921380153964</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P5" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2590.394324560903</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2590.394324560903</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2590.394324560903</v>
       </c>
       <c r="W5" t="n">
-        <v>2265.205371842461</v>
+        <v>2185.538869971936</v>
       </c>
       <c r="X5" t="n">
-        <v>1846.062908421772</v>
+        <v>2185.538869971936</v>
       </c>
       <c r="Y5" t="n">
-        <v>1437.776784721425</v>
+        <v>1777.252746271589</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>277.7880908295409</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713193</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
         <v>139.9809016933184</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2221.932830255045</v>
+        <v>1896.269208336752</v>
       </c>
       <c r="C8" t="n">
-        <v>1783.790357438468</v>
+        <v>1458.126735520176</v>
       </c>
       <c r="D8" t="n">
-        <v>1347.880572612912</v>
+        <v>1022.21695069462</v>
       </c>
       <c r="E8" t="n">
-        <v>914.1058277712076</v>
+        <v>588.4422058529153</v>
       </c>
       <c r="F8" t="n">
-        <v>486.2383981804153</v>
+        <v>373.970721360463</v>
       </c>
       <c r="G8" t="n">
-        <v>84.84056680367922</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H8" t="n">
-        <v>84.84056680367922</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I8" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J8" t="n">
-        <v>84.42377743081923</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K8" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L8" t="n">
-        <v>1963.518315095385</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M8" t="n">
-        <v>3008.262560801772</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N8" t="n">
-        <v>4053.00680650816</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O8" t="n">
-        <v>4221.188871540961</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P8" t="n">
-        <v>4221.188871540961</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q8" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R8" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S8" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T8" t="n">
-        <v>4221.188871540961</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U8" t="n">
-        <v>3961.966568857978</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="V8" t="n">
-        <v>3880.516442449955</v>
+        <v>3554.852820531662</v>
       </c>
       <c r="W8" t="n">
-        <v>3475.660987860988</v>
+        <v>3149.997365942696</v>
       </c>
       <c r="X8" t="n">
-        <v>3056.518524440299</v>
+        <v>2730.854902522007</v>
       </c>
       <c r="Y8" t="n">
-        <v>2648.232400739952</v>
+        <v>2322.56877882166</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H9" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I9" t="n">
         <v>110.4874505912768</v>
@@ -4886,19 +4886,19 @@
         <v>435.0457755574892</v>
       </c>
       <c r="K9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O9" t="n">
-        <v>435.0457755574892</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P9" t="n">
         <v>1089.751822183213</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.4997935538031</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C10" t="n">
-        <v>599.938082037028</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D10" t="n">
-        <v>434.0600892385507</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E10" t="n">
-        <v>264.302085489288</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F10" t="n">
-        <v>224.3259517404447</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G10" t="n">
-        <v>224.3259517404447</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H10" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I10" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J10" t="n">
         <v>171.0034625955091</v>
@@ -4986,28 +4986,28 @@
         <v>2701.083387333619</v>
       </c>
       <c r="R10" t="n">
-        <v>2679.665566038991</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S10" t="n">
-        <v>2520.424197336987</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T10" t="n">
-        <v>2274.544750915442</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U10" t="n">
-        <v>1996.111750168548</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V10" t="n">
-        <v>1709.156242038978</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W10" t="n">
-        <v>1437.12983762527</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X10" t="n">
-        <v>1191.738082958682</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y10" t="n">
-        <v>964.3184122727903</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2199.988309279878</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="C11" t="n">
-        <v>1761.845836463301</v>
+        <v>2072.920511995252</v>
       </c>
       <c r="D11" t="n">
-        <v>1325.936051637746</v>
+        <v>1637.010727169696</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1613067960407</v>
+        <v>1203.235982327991</v>
       </c>
       <c r="F11" t="n">
-        <v>464.2938772052484</v>
+        <v>775.368552737199</v>
       </c>
       <c r="G11" t="n">
-        <v>84.84056680367922</v>
+        <v>373.970721360463</v>
       </c>
       <c r="H11" t="n">
-        <v>84.84056680367922</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I11" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J11" t="n">
-        <v>84.42377743081923</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K11" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L11" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M11" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N11" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O11" t="n">
-        <v>2846.380210748971</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P11" t="n">
         <v>3674.690085582366</v>
       </c>
       <c r="Q11" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R11" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S11" t="n">
-        <v>4221.188871540961</v>
+        <v>4137.536997724797</v>
       </c>
       <c r="T11" t="n">
-        <v>4221.188871540961</v>
+        <v>3917.469770597836</v>
       </c>
       <c r="U11" t="n">
-        <v>4221.188871540961</v>
+        <v>3658.247467914853</v>
       </c>
       <c r="V11" t="n">
-        <v>3858.571921474788</v>
+        <v>3295.630517848679</v>
       </c>
       <c r="W11" t="n">
-        <v>3453.716466885821</v>
+        <v>2890.775063259713</v>
       </c>
       <c r="X11" t="n">
-        <v>3034.574003465132</v>
+        <v>2511.062984811828</v>
       </c>
       <c r="Y11" t="n">
-        <v>2626.287879764785</v>
+        <v>2511.062984811828</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H12" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I12" t="n">
         <v>110.4874505912768</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>953.1589835504346</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C13" t="n">
-        <v>780.5972720336596</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D13" t="n">
-        <v>659.4509587532759</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E13" t="n">
-        <v>489.6929550040131</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F13" t="n">
-        <v>312.9859009657694</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G13" t="n">
-        <v>312.9859009657694</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H13" t="n">
-        <v>173.0837266561439</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I13" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J13" t="n">
         <v>171.0034625955091</v>
@@ -5226,25 +5226,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S13" t="n">
-        <v>2701.083387333619</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T13" t="n">
-        <v>2455.203940912074</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.770940165179</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.81543203561</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.789027621901</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X13" t="n">
-        <v>1372.397272955314</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.977602269422</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2077.288239970123</v>
+        <v>2221.516040882185</v>
       </c>
       <c r="C14" t="n">
-        <v>1639.145767153547</v>
+        <v>1783.373568065608</v>
       </c>
       <c r="D14" t="n">
-        <v>1203.235982327991</v>
+        <v>1347.463783240052</v>
       </c>
       <c r="E14" t="n">
-        <v>1203.235982327991</v>
+        <v>913.6890383983475</v>
       </c>
       <c r="F14" t="n">
-        <v>775.368552737199</v>
+        <v>485.8216088075553</v>
       </c>
       <c r="G14" t="n">
-        <v>373.970721360463</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H14" t="n">
-        <v>84.84056680367922</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I14" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J14" t="n">
-        <v>84.42377743081923</v>
+        <v>519.6784648837371</v>
       </c>
       <c r="K14" t="n">
-        <v>918.7740693889972</v>
+        <v>1354.028756841915</v>
       </c>
       <c r="L14" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M14" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N14" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O14" t="n">
-        <v>2846.380210748971</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P14" t="n">
         <v>3674.690085582366</v>
       </c>
       <c r="Q14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T14" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U14" t="n">
-        <v>4098.488802231207</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V14" t="n">
-        <v>3735.871852165033</v>
+        <v>3858.571921474787</v>
       </c>
       <c r="W14" t="n">
-        <v>3331.016397576067</v>
+        <v>3475.244198488128</v>
       </c>
       <c r="X14" t="n">
-        <v>2911.873934155378</v>
+        <v>3056.101735067439</v>
       </c>
       <c r="Y14" t="n">
-        <v>2503.587810455031</v>
+        <v>2647.815611367093</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>126.1594296146068</v>
       </c>
       <c r="H15" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I15" t="n">
         <v>110.4874505912768</v>
@@ -5360,19 +5360,19 @@
         <v>435.0457755574892</v>
       </c>
       <c r="K15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="L15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="M15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="N15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="O15" t="n">
-        <v>1089.751822183213</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="P15" t="n">
         <v>1089.751822183213</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>934.9198145077505</v>
+        <v>793.9176148484312</v>
       </c>
       <c r="C16" t="n">
-        <v>762.3581029909755</v>
+        <v>621.3559033316561</v>
       </c>
       <c r="D16" t="n">
-        <v>596.4801101924982</v>
+        <v>455.4779105331788</v>
       </c>
       <c r="E16" t="n">
-        <v>426.7221064432354</v>
+        <v>285.7199067839161</v>
       </c>
       <c r="F16" t="n">
-        <v>250.0150524049916</v>
+        <v>109.0128527456723</v>
       </c>
       <c r="G16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I16" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J16" t="n">
         <v>171.0034625955091</v>
@@ -5463,25 +5463,25 @@
         <v>2701.083387333619</v>
       </c>
       <c r="S16" t="n">
-        <v>2682.844218290934</v>
+        <v>2541.842018631615</v>
       </c>
       <c r="T16" t="n">
-        <v>2436.96477186939</v>
+        <v>2295.96257221007</v>
       </c>
       <c r="U16" t="n">
-        <v>2158.531771122495</v>
+        <v>2017.529571463176</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.576262992925</v>
+        <v>1730.574063333606</v>
       </c>
       <c r="W16" t="n">
-        <v>1599.549858579217</v>
+        <v>1458.547658919898</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.158103912629</v>
+        <v>1213.15590425331</v>
       </c>
       <c r="Y16" t="n">
-        <v>1126.738433226738</v>
+        <v>985.7362335674184</v>
       </c>
     </row>
     <row r="17">
@@ -5524,10 +5524,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5548,16 +5548,16 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5597,19 +5597,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6472,7 +6472,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3346.878440713113</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C31" t="n">
-        <v>3174.316729196338</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D31" t="n">
-        <v>3008.438736397861</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E31" t="n">
-        <v>2838.680732648598</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F31" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G31" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H31" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>5094.802844496297</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>4848.923398074752</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>4570.490397327858</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V31" t="n">
-        <v>4283.534889198289</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W31" t="n">
-        <v>4011.50848478458</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X31" t="n">
-        <v>3766.116730117992</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y31" t="n">
-        <v>3538.697059432101</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6706,10 +6706,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,16 +6940,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2769.623329187108</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
         <v>3569.079287993933</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3321.189340048566</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3148.627628531791</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>2982.749635733314</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2812.991631984051</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2636.284577945808</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2636.284577945808</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4953.800644836978</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4707.921198415434</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4429.488197668539</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4142.53268953897</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>3870.506285125261</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3625.114530458674</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3513.007958767554</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2221.516040882185</v>
+        <v>2221.932830255045</v>
       </c>
       <c r="C41" t="n">
-        <v>1783.373568065608</v>
+        <v>1783.790357438468</v>
       </c>
       <c r="D41" t="n">
-        <v>1347.463783240052</v>
+        <v>1347.880572612912</v>
       </c>
       <c r="E41" t="n">
-        <v>913.6890383983475</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F41" t="n">
-        <v>485.8216088075553</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I41" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J41" t="n">
         <v>519.6784648837371</v>
@@ -7417,46 +7417,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L41" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M41" t="n">
-        <v>2398.773002548303</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N41" t="n">
-        <v>3443.517248254691</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O41" t="n">
-        <v>4221.188871540961</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P41" t="n">
-        <v>4221.188871540961</v>
+        <v>3674.690085582366</v>
       </c>
       <c r="Q41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T41" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U41" t="n">
-        <v>4221.188871540961</v>
+        <v>3961.966568857977</v>
       </c>
       <c r="V41" t="n">
-        <v>3880.099653077095</v>
+        <v>3880.516442449955</v>
       </c>
       <c r="W41" t="n">
-        <v>3475.244198488128</v>
+        <v>3475.660987860988</v>
       </c>
       <c r="X41" t="n">
-        <v>3056.101735067439</v>
+        <v>3056.518524440299</v>
       </c>
       <c r="Y41" t="n">
-        <v>2647.815611367093</v>
+        <v>2648.232400739952</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3064.120855053445</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C42" t="n">
-        <v>2957.664393890087</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D42" t="n">
-        <v>2862.574105036641</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E42" t="n">
-        <v>2768.453690363594</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F42" t="n">
-        <v>2685.069851979756</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G42" t="n">
-        <v>2599.68476224594</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H42" t="n">
-        <v>2557.949110062153</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I42" t="n">
-        <v>2584.01278322261</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J42" t="n">
-        <v>2908.571108188823</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P42" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q42" t="n">
-        <v>4104.016093446621</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R42" t="n">
-        <v>4221.188871540961</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S42" t="n">
-        <v>4157.733433989344</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T42" t="n">
-        <v>4027.554790319946</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U42" t="n">
-        <v>3851.218243319914</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V42" t="n">
-        <v>3652.100725381913</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W42" t="n">
-        <v>3466.777971115107</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X42" t="n">
-        <v>3311.910535353988</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y42" t="n">
-        <v>3185.424756133209</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="43">
@@ -7557,16 +7557,16 @@
         <v>426.7221064432354</v>
       </c>
       <c r="F43" t="n">
-        <v>250.0150524049916</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G43" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H43" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I43" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J43" t="n">
         <v>171.0034625955091</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2511.062984811828</v>
+        <v>2221.932830255045</v>
       </c>
       <c r="C44" t="n">
-        <v>2072.920511995252</v>
+        <v>1783.790357438468</v>
       </c>
       <c r="D44" t="n">
-        <v>1637.010727169696</v>
+        <v>1347.880572612912</v>
       </c>
       <c r="E44" t="n">
-        <v>1203.235982327991</v>
+        <v>914.1058277712076</v>
       </c>
       <c r="F44" t="n">
-        <v>775.368552737199</v>
+        <v>486.2383981804153</v>
       </c>
       <c r="G44" t="n">
-        <v>373.970721360463</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="H44" t="n">
-        <v>84.84056680367922</v>
+        <v>84.84056680367921</v>
       </c>
       <c r="I44" t="n">
-        <v>84.42377743081923</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J44" t="n">
         <v>519.6784648837371</v>
@@ -7654,46 +7654,46 @@
         <v>1354.028756841915</v>
       </c>
       <c r="L44" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="M44" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="N44" t="n">
-        <v>1866.200544178664</v>
+        <v>1866.200544178663</v>
       </c>
       <c r="O44" t="n">
-        <v>2846.380210748971</v>
+        <v>2846.38021074897</v>
       </c>
       <c r="P44" t="n">
         <v>3674.690085582366</v>
       </c>
       <c r="Q44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="R44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="S44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="T44" t="n">
-        <v>4221.188871540961</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="U44" t="n">
-        <v>4127.408092483945</v>
+        <v>4221.18887154096</v>
       </c>
       <c r="V44" t="n">
-        <v>3764.791142417772</v>
+        <v>3880.516442449955</v>
       </c>
       <c r="W44" t="n">
-        <v>3764.791142417772</v>
+        <v>3475.660987860988</v>
       </c>
       <c r="X44" t="n">
-        <v>3345.648678997083</v>
+        <v>3056.518524440299</v>
       </c>
       <c r="Y44" t="n">
-        <v>2937.362555296736</v>
+        <v>2648.232400739952</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3064.120855053445</v>
+        <v>590.595522422112</v>
       </c>
       <c r="C45" t="n">
-        <v>2957.664393890087</v>
+        <v>484.1390612587543</v>
       </c>
       <c r="D45" t="n">
-        <v>2862.574105036641</v>
+        <v>389.0487724053075</v>
       </c>
       <c r="E45" t="n">
-        <v>2768.453690363594</v>
+        <v>294.9283577322612</v>
       </c>
       <c r="F45" t="n">
-        <v>2685.069851979756</v>
+        <v>211.5445193484229</v>
       </c>
       <c r="G45" t="n">
-        <v>2599.68476224594</v>
+        <v>126.1594296146068</v>
       </c>
       <c r="H45" t="n">
-        <v>2557.949110062153</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I45" t="n">
-        <v>2584.01278322261</v>
+        <v>110.4874505912768</v>
       </c>
       <c r="J45" t="n">
-        <v>2908.571108188823</v>
+        <v>435.0457755574892</v>
       </c>
       <c r="K45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="L45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="M45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="N45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="O45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="P45" t="n">
-        <v>3563.277154814545</v>
+        <v>1089.751822183213</v>
       </c>
       <c r="Q45" t="n">
-        <v>4104.016093446621</v>
+        <v>1630.490760815288</v>
       </c>
       <c r="R45" t="n">
-        <v>4221.188871540961</v>
+        <v>1747.663538909628</v>
       </c>
       <c r="S45" t="n">
-        <v>4157.733433989344</v>
+        <v>1684.208101358011</v>
       </c>
       <c r="T45" t="n">
-        <v>4027.554790319946</v>
+        <v>1554.029457688613</v>
       </c>
       <c r="U45" t="n">
-        <v>3851.218243319914</v>
+        <v>1377.692910688581</v>
       </c>
       <c r="V45" t="n">
-        <v>3652.100725381913</v>
+        <v>1178.57539275058</v>
       </c>
       <c r="W45" t="n">
-        <v>3466.777971115107</v>
+        <v>993.2526384837745</v>
       </c>
       <c r="X45" t="n">
-        <v>3311.910535353988</v>
+        <v>838.3852027226544</v>
       </c>
       <c r="Y45" t="n">
-        <v>3185.424756133209</v>
+        <v>711.8994235018752</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2473.264467757778</v>
+        <v>934.9198145077505</v>
       </c>
       <c r="C46" t="n">
-        <v>2300.702756241003</v>
+        <v>762.3581029909755</v>
       </c>
       <c r="D46" t="n">
-        <v>2134.824763442525</v>
+        <v>596.4801101924982</v>
       </c>
       <c r="E46" t="n">
-        <v>1965.066759693262</v>
+        <v>426.7221064432354</v>
       </c>
       <c r="F46" t="n">
-        <v>1788.359705655019</v>
+        <v>250.0150524049915</v>
       </c>
       <c r="G46" t="n">
-        <v>1622.768430680846</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="H46" t="n">
-        <v>1622.768430680846</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="I46" t="n">
-        <v>1604.529261638162</v>
+        <v>84.42377743081921</v>
       </c>
       <c r="J46" t="n">
-        <v>1691.108946802852</v>
+        <v>171.0034625955091</v>
       </c>
       <c r="K46" t="n">
-        <v>1965.867401373987</v>
+        <v>445.7619171666447</v>
       </c>
       <c r="L46" t="n">
-        <v>2384.077283141948</v>
+        <v>863.9717989346057</v>
       </c>
       <c r="M46" t="n">
-        <v>2843.561150322861</v>
+        <v>1323.455666115519</v>
       </c>
       <c r="N46" t="n">
-        <v>3285.819953480506</v>
+        <v>1765.714469273163</v>
       </c>
       <c r="O46" t="n">
-        <v>3705.489202706287</v>
+        <v>2185.383718498945</v>
       </c>
       <c r="P46" t="n">
-        <v>4052.996096676629</v>
+        <v>2532.890612469287</v>
       </c>
       <c r="Q46" t="n">
-        <v>4221.188871540961</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="R46" t="n">
-        <v>4221.188871540961</v>
+        <v>2701.083387333619</v>
       </c>
       <c r="S46" t="n">
-        <v>4221.188871540961</v>
+        <v>2682.844218290934</v>
       </c>
       <c r="T46" t="n">
-        <v>3975.309425119417</v>
+        <v>2436.96477186939</v>
       </c>
       <c r="U46" t="n">
-        <v>3696.876424372522</v>
+        <v>2158.531771122495</v>
       </c>
       <c r="V46" t="n">
-        <v>3409.920916242952</v>
+        <v>1871.576262992925</v>
       </c>
       <c r="W46" t="n">
-        <v>3137.894511829244</v>
+        <v>1599.549858579217</v>
       </c>
       <c r="X46" t="n">
-        <v>2892.502757162657</v>
+        <v>1354.158103912629</v>
       </c>
       <c r="Y46" t="n">
-        <v>2665.083086476765</v>
+        <v>1126.738433226738</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>200.3264657984391</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>169.8808737705058</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>956.9964391814821</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>956.9964391814821</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10354,13 +10354,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10588,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>807.5312715220462</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11065,22 +11065,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>785.5268922083542</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>517.3452397340902</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22549,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>20.11500515873149</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -22600,7 +22600,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -22612,7 +22612,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.0353499799959</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.2197249473436</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22789,22 +22789,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>302.3269894994621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>138.9967180038717</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -22849,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22956,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,13 +22992,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23032,13 +23032,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>211.2619856473565</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>278.3551554215693</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23190,13 +23190,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>135.3636110865065</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>21.72507576541528</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>39.03608112307694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44.28436272291272</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,13 +23551,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>135.1570110394965</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>21.31245428628512</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>114.1599680048237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,10 +25684,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>21.31245428628438</v>
+        <v>278.3551554215701</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>163.7871083897075</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>21.72507576541665</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>69.71657238081413</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>448446.7102975984</v>
+        <v>448446.7102975983</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>607290.5919724101</v>
+        <v>607290.59197241</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>607290.5919724101</v>
+        <v>607290.59197241</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>607290.5919724101</v>
+        <v>607290.5919724099</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>698621.1661345444</v>
+        <v>698621.1661345443</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>698621.1661345443</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>698621.1661345443</v>
+        <v>698621.1661345444</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607290.5919724101</v>
+        <v>607290.59197241</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>607290.5919724101</v>
+        <v>607290.59197241</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>217541.2699918058</v>
       </c>
       <c r="E2" t="n">
-        <v>217541.2699918058</v>
+        <v>217541.2699918057</v>
       </c>
       <c r="F2" t="n">
         <v>217541.2699918058</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>61110.89210613185</v>
+        <v>61110.8921061319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>17770.48083418234</v>
       </c>
       <c r="C4" t="n">
-        <v>17770.48083418235</v>
+        <v>17770.48083418234</v>
       </c>
       <c r="D4" t="n">
         <v>24064.94590686879</v>
       </c>
       <c r="E4" t="n">
-        <v>24064.9459068688</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="F4" t="n">
-        <v>24064.9459068688</v>
+        <v>24064.94590686879</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020268</v>
@@ -26472,16 +26472,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>97789.67084742262</v>
+        <v>97789.67084742259</v>
       </c>
       <c r="E5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="F5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
       <c r="P5" t="n">
-        <v>64162.07084742261</v>
+        <v>64162.0708474226</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155041.8704624799</v>
+        <v>-155536.7606910612</v>
       </c>
       <c r="C6" t="n">
-        <v>68657.82812156493</v>
+        <v>68162.93789298367</v>
       </c>
       <c r="D6" t="n">
-        <v>-24770.07292557918</v>
+        <v>-24965.48717271672</v>
       </c>
       <c r="E6" t="n">
-        <v>129314.2532375144</v>
+        <v>129118.8389903768</v>
       </c>
       <c r="F6" t="n">
-        <v>129314.2532375144</v>
+        <v>129118.8389903768</v>
       </c>
       <c r="G6" t="n">
-        <v>83744.14300311534</v>
+        <v>83720.91866373265</v>
       </c>
       <c r="H6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="I6" t="n">
-        <v>144855.0351092471</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="J6" t="n">
-        <v>-29796.31360845898</v>
+        <v>-29819.53794784162</v>
       </c>
       <c r="K6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="L6" t="n">
-        <v>46710.89809304298</v>
+        <v>46687.67375366033</v>
       </c>
       <c r="M6" t="n">
-        <v>144855.0351092471</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="N6" t="n">
-        <v>144855.0351092472</v>
+        <v>144831.8107698645</v>
       </c>
       <c r="O6" t="n">
-        <v>129314.2532375144</v>
+        <v>129118.8389903768</v>
       </c>
       <c r="P6" t="n">
-        <v>129314.2532375144</v>
+        <v>129118.8389903768</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
         <v>1055.29721788524</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>222.963285499505</v>
+        <v>222.9632854995052</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>88.52591951401018</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.4873165037804</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="N5" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>640.544895229762</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>200.3264657984391</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35108,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M8" t="n">
-        <v>1055.29721788524</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>169.8808737705058</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>956.9964391814821</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>956.9964391814821</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35892,13 +35892,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36840,10 +36840,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,13 +37074,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>92.22506899525706</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37308,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081364</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
-        <v>807.5312715220462</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,22 +37785,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1055.29721788524</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1055.297217885241</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>785.5268922083542</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>118.356341509435</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>517.3452397340902</v>
+        <v>517.3452397340893</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158815</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>118.356341509435</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
